--- a/excelFiles/Sale-Summary-Daily-Report.xlsx
+++ b/excelFiles/Sale-Summary-Daily-Report.xlsx
@@ -327,350 +327,444 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>No</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Tarih</v>
+      </c>
+      <c r="C1" t="str">
         <v>Gross Profit</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>Net Profit</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>Sale Count</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>Item Count</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>Customer Count</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>Discount</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>Basket Value</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>Basket Size</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>22/08/2018 01:03</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>12.1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>14.1</v>
-      </c>
-      <c r="I2">
-        <v>1534932188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>23/08/2018 08:40</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>120</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
       <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>24.4</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>24.4</v>
-      </c>
-      <c r="I3">
-        <v>1535046044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>150</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>25/08/2018 12:27</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G4">
-        <v>18.1</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>1535218844</v>
+        <v>24.4</v>
+      </c>
+      <c r="J4">
+        <v>24.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>170</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>25/08/2018 08:40</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>18.4</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>1535318844</v>
+        <v>18.1</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>27/08/2018 12:27</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I6">
-        <v>1535418844</v>
+        <v>18.4</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>180</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>28/08/2018 04:14</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
         <v>150</v>
       </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>45</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>20.8</v>
       </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>1535518844</v>
+      <c r="J7">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>240</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>29/08/2018 08:00</v>
       </c>
       <c r="C8">
+        <v>180</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>150</v>
       </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
         <v>45</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>20.8</v>
       </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>1535618844</v>
+      <c r="J8">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>220</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>30/08/2018 11:47</v>
       </c>
       <c r="C9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>150</v>
       </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>45</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>20.8</v>
       </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>1535718844</v>
+      <c r="J9">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>200</v>
-      </c>
-      <c r="B10">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>31/08/2018 03:34</v>
       </c>
       <c r="C10">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>150</v>
       </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>45</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>20.8</v>
       </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>1535818844</v>
+      <c r="J10">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>225</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>01/09/2018 07:20</v>
       </c>
       <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>150</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>20.8</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>1535918844</v>
+      <c r="J11">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>200</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>02/09/2018 11:07</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>20.8</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Toplam</v>
+      </c>
+      <c r="C13">
+        <v>2085</v>
+      </c>
+      <c r="D13">
+        <v>286</v>
+      </c>
+      <c r="E13">
+        <v>295</v>
+      </c>
+      <c r="F13">
+        <v>1330</v>
+      </c>
+      <c r="G13">
+        <v>265</v>
+      </c>
+      <c r="H13">
+        <v>370</v>
+      </c>
+      <c r="I13">
+        <v>222.20000000000005</v>
+      </c>
+      <c r="J13">
+        <v>228.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Ortalama</v>
+      </c>
+      <c r="C14">
+        <v>189.54545454545453</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14">
         <v>120</v>
       </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>24.4</v>
-      </c>
-      <c r="H12">
-        <v>24.4</v>
-      </c>
-      <c r="I12">
-        <v>1535146044</v>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>33.63636363636363</v>
+      </c>
+      <c r="I14">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="J14">
+        <v>20.80909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/excelFiles/Sale-Summary-Daily-Report.xlsx
+++ b/excelFiles/Sale-Summary-Daily-Report.xlsx
@@ -362,7 +362,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>22/08/2018 01:03</v>
+        <v>22/08/2018 12:03</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>23/08/2018 08:40</v>
+        <v>23/08/2018 07:40</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>25/08/2018 12:27</v>
+        <v>24/08/2018 11:27</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>25/08/2018 08:40</v>
+        <v>25/08/2018 07:40</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>27/08/2018 12:27</v>
+        <v>26/08/2018 11:27</v>
       </c>
       <c r="C6">
         <v>170</v>
@@ -522,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>28/08/2018 04:14</v>
+        <v>28/08/2018 03:14</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>29/08/2018 08:00</v>
+        <v>29/08/2018 07:00</v>
       </c>
       <c r="C8">
         <v>180</v>
@@ -586,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>30/08/2018 11:47</v>
+        <v>30/08/2018 10:47</v>
       </c>
       <c r="C9">
         <v>240</v>
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>31/08/2018 03:34</v>
+        <v>31/08/2018 02:34</v>
       </c>
       <c r="C10">
         <v>220</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>01/09/2018 07:20</v>
+        <v>01/09/2018 06:20</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>02/09/2018 11:07</v>
+        <v>02/09/2018 10:07</v>
       </c>
       <c r="C12">
         <v>225</v>
